--- a/Practica-2/Ex1/GaussSeidelEstudiConvergencia.xlsx
+++ b/Practica-2/Ex1/GaussSeidelEstudiConvergencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Google Drive\UNI\CN\CN-Lab\Practica-2\Matlab\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Google Drive\UNI\CN\CN-Lab\Practica-2\Ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3238CDEF-5DC2-479F-B2A4-E596D0A80F8A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3F7EA38D-1C9F-4335-A895-681E7B1DEC65}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="10140" xr2:uid="{35B89254-57B4-4E9A-BF93-5199D38ACE4E}"/>
   </bookViews>
